--- a/data/GPSC_sediment/GPSC_sediment_2021.08.16_ysl.xlsx
+++ b/data/GPSC_sediment/GPSC_sediment_2021.08.16_ysl.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_MOST\GPSC_data\GPSC_sediment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\labWei\Tung_thesis\GPSC_data\data\GPSC_sediment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12260"/>
   </bookViews>
   <sheets>
     <sheet name="Environmental data" sheetId="1" r:id="rId1"/>
@@ -1973,30 +1973,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N250" sqref="N250"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
     <col min="6" max="8" width="9" style="21"/>
-    <col min="9" max="9" width="13.875" style="47" customWidth="1"/>
+    <col min="9" max="9" width="13.90625" style="47" customWidth="1"/>
     <col min="10" max="10" width="9" style="54"/>
     <col min="11" max="11" width="9" style="57"/>
-    <col min="12" max="12" width="14.75" style="54" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" style="54" customWidth="1"/>
     <col min="13" max="14" width="9" style="16"/>
-    <col min="15" max="15" width="8.625" style="47"/>
-    <col min="16" max="16" width="10.5" customWidth="1"/>
-    <col min="17" max="19" width="8.625" style="65"/>
-    <col min="20" max="20" width="8.625" style="54"/>
+    <col min="15" max="15" width="8.6328125" style="47"/>
+    <col min="16" max="16" width="10.453125" customWidth="1"/>
+    <col min="17" max="19" width="8.6328125" style="65"/>
+    <col min="20" max="20" width="8.6328125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="19" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="19" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="S2" s="65"/>
       <c r="T2" s="54"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>10.365500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>12.839</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>10.2425</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="S6" s="65"/>
       <c r="T6" s="54"/>
     </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="S7" s="65"/>
       <c r="T7" s="54"/>
     </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -2365,7 +2365,7 @@
       <c r="S8" s="65"/>
       <c r="T8" s="54"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>12.976799999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>9.490499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>10.904000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>13.180099999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>16.498799999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>9.2382000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>9.7897000000000016</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>11.908300000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>13.410500000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>9.8983999999999988</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>11.101300000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>11.499099999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>12.102300000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>10.7666</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>11.562399999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>13.316900000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>12.555600000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>10.911700000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>10.3421</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>8.8691999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>12.1686</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>47</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>11.136899999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>11.848600000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>5.6806999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>47</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>6.4468000000000014</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>47</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>6.1670999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>47</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>8.8656999999999986</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>47</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>6.9544999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>8.9481000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>7.0099</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>8.0866000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>47</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>7.8845999999999989</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>8.3385999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>47</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>9.3906000000000009</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>9.2261000000000024</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>6.1000999999999994</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>5.5959000000000021</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>7.0407999999999991</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>7.5668000000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>6.0896000000000008</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>7.9598000000000013</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>2.327</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>2.5890000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>9</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>2.1020000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>0.33800000000000097</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>1.7729999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>10</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>2.3609999999999989</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>10</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>2.0579999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>2.9880000000000013</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>2.8209999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>9</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>1.8050000000000015</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>1.8709999999999987</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>2.1310000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>9</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>1.8879999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>9</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>1.6080000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>2.0060000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>9</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>1.6519999999999992</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>9</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>1.5229999999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>1.9480000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>9</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>1.5839999999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>9</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>1.782</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>9</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>1.8940000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>1.652000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>9</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>1.968</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>9</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>2.1950000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>9</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>2.1109999999999989</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>9</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>2.1999999999999993</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>9</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>2.4469999999999992</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>9</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>2.1940000000000008</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>9</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>1.5950000000000006</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>1.5609999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>9</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>1.8089999999999993</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>9</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>2.032</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>9</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>2.620000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>9</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>2.0010000000000012</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>9</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>1.3739999999999988</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>9</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>2.0620000000000012</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>9</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>1.9690000000000012</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>9</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>1.9960000000000004</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>9</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>2.2390000000000008</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>9</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>0.8879999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>9</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>1.9160000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>9</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>1.9850000000000012</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>9</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>2.2190000000000012</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>9</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>1.6449999999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>9</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>1.9819999999999993</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>28</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>11.283000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>28</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>11.31</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>11</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>14.014999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>11</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>11.878</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>11</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>12.979000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>13.338000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>11</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>14.331999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>11</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>6.4349999999999987</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
         <v>11</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>7.6380000000000017</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
         <v>11</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>11.172000000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
         <v>11</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>10.626000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
         <v>11</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>16.783000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
         <v>11</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>6.9750000000000014</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
         <v>11</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>10.712999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
         <v>11</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>11.270000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
         <v>11</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>8.6699999999999982</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
         <v>11</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>11.834</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
         <v>11</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>19.036999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
         <v>11</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>6.0869999999999997</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
         <v>11</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>5.4140000000000015</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
         <v>11</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>9.2899999999999991</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
         <v>11</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>6.5410000000000021</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>11</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>9.2209999999999983</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
         <v>11</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>13.076000000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
         <v>11</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>4.5339999999999989</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
         <v>11</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>6.34</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
         <v>11</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>4.9960000000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
         <v>11</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>7.6230000000000011</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
         <v>11</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>5.9270000000000014</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
         <v>11</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>7.9049999999999994</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
         <v>11</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>7.1170000000000009</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
         <v>11</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>9.6889999999999983</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
         <v>11</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>5.9719999999999995</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
         <v>11</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>7.0489999999999995</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
         <v>11</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>5.4339999999999993</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
         <v>11</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>16.658000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
         <v>11</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>6.8970000000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
         <v>11</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>11.354999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
         <v>11</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>12.495000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
         <v>11</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>8.6339999999999986</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
         <v>11</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>11.731</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
         <v>11</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
         <v>11</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>5.7719999999999985</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
         <v>11</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>6.1660000000000004</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
         <v>11</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>7.0890000000000022</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>11</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>7.4920000000000009</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
         <v>11</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>6.5480000000000018</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
         <v>11</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>7.1929999999999978</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
         <v>48</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>6.4564000000000021</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A147" s="15" t="s">
         <v>48</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>13.210100000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A148" s="15" t="s">
         <v>48</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>8.8080999999999978</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A149" s="15" t="s">
         <v>48</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>12.892499999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A150" s="15" t="s">
         <v>48</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>9.5379000000000005</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A151" s="15" t="s">
         <v>48</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>4.9620999999999995</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
         <v>51</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>3.836999999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A153" s="15" t="s">
         <v>51</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>3.447000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
         <v>53</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>4.3610000000000024</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
         <v>54</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>4.4350000000000005</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A156" s="15" t="s">
         <v>54</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>2.6340000000000003</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A157" s="15" t="s">
         <v>54</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>1.3919999999999995</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A158" s="15" t="s">
         <v>54</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>2.1550000000000011</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A159" s="15" t="s">
         <v>54</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>1.4590000000000014</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A160" s="15" t="s">
         <v>59</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>4.7880000000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A161" s="15" t="s">
         <v>59</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>3.2639999999999993</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A162" s="15" t="s">
         <v>59</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>4.0569999999999986</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A163" s="15" t="s">
         <v>59</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>5.6480000000000015</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A164" s="15" t="s">
         <v>59</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>3.3279999999999994</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A165" s="15" t="s">
         <v>59</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>1.4000000000000004</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
         <v>74</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>8.8839999999999986</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A167" s="15" t="s">
         <v>74</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>9.4649999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A168" s="15" t="s">
         <v>74</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>7.7720000000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A169" s="15" t="s">
         <v>74</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>6.8010000000000019</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A170" s="15" t="s">
         <v>74</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>5.1549999999999994</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A171" s="15" t="s">
         <v>74</v>
       </c>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="P171" s="19"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A172" s="15" t="s">
         <v>74</v>
       </c>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="P172" s="19"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A173" s="22" t="s">
         <v>77</v>
       </c>
@@ -9133,7 +9133,7 @@
       </c>
       <c r="P173" s="19"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A174" s="22" t="s">
         <v>77</v>
       </c>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="P174" s="19"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A175" s="22" t="s">
         <v>77</v>
       </c>
@@ -9217,7 +9217,7 @@
       </c>
       <c r="P175" s="19"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A176" s="22" t="s">
         <v>77</v>
       </c>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="P176" s="19"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A177" s="22" t="s">
         <v>77</v>
       </c>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="P177" s="19"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A178" s="22" t="s">
         <v>77</v>
       </c>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="P178" s="19"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A179" s="22" t="s">
         <v>84</v>
       </c>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="P179" s="19"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A180" s="22" t="s">
         <v>84</v>
       </c>
@@ -9427,7 +9427,7 @@
       </c>
       <c r="P180" s="19"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A181" s="22" t="s">
         <v>84</v>
       </c>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="P181" s="19"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A182" s="22" t="s">
         <v>84</v>
       </c>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="P182" s="19"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A183" s="22" t="s">
         <v>84</v>
       </c>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="P183" s="19"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A184" s="22" t="s">
         <v>84</v>
       </c>
@@ -9595,7 +9595,7 @@
       </c>
       <c r="P184" s="19"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A185" s="22" t="s">
         <v>91</v>
       </c>
@@ -9637,7 +9637,7 @@
       </c>
       <c r="P185" s="19"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A186" s="22" t="s">
         <v>91</v>
       </c>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="P186" s="19"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
         <v>94</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>7.6789849892780557</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A188" s="15" t="s">
         <v>94</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>7.9401604278074895</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A189" s="15" t="s">
         <v>94</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>6.9411466011466008</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A190" s="15" t="s">
         <v>94</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>6.4388952071486605</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A191" s="15" t="s">
         <v>94</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>6.4458358662613966</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A192" s="15" t="s">
         <v>94</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>10.610884718498658</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A193" s="15" t="s">
         <v>94</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>11.61</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A194" s="15" t="s">
         <v>94</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>8.0499999999999989</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A195" s="15" t="s">
         <v>94</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>12.959999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A196" s="15" t="s">
         <v>94</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>11.719999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A197" s="15" t="s">
         <v>94</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>12.48</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A198" s="15" t="s">
         <v>94</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>11.350000000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A199" s="15" t="s">
         <v>94</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>10.719999999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A200" s="15" t="s">
         <v>94</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>11.069999999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A201" s="15" t="s">
         <v>94</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A202" s="15" t="s">
         <v>94</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>8.0100000000000016</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A203" s="15" t="s">
         <v>94</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>11.55</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A204" s="15" t="s">
         <v>94</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>8.490000000000002</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A205" s="15" t="s">
         <v>94</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>8.9999999999999982</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A206" s="15" t="s">
         <v>94</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>8.4099999999999984</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A207" s="15" t="s">
         <v>94</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>9.3999999999999986</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A208" s="15" t="s">
         <v>94</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>13.469999999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A209" s="15" t="s">
         <v>94</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>12.750999999999998</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A210" s="15" t="s">
         <v>94</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>14.689999999999998</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A211" s="15" t="s">
         <v>94</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>8.0740000000000016</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A212" s="2" t="s">
         <v>120</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>14.548999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A213" s="2" t="s">
         <v>121</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>9.129999999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A214" s="2" t="s">
         <v>145</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>0.71167339439635158</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A215" s="15" t="s">
         <v>145</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>0.68807877423087205</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A216" s="15" t="s">
         <v>145</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>0.66161709008437475</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A217" s="15" t="s">
         <v>124</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>0.6318877561296864</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A218" s="15" t="s">
         <v>124</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>0.65708788164748733</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A219" s="15" t="s">
         <v>124</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>0.72211239737022725</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A220" s="15" t="s">
         <v>124</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>0.7128985974804477</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A221" s="15" t="s">
         <v>124</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>0.68434042514965887</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A222" s="15" t="s">
         <v>124</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>0.66984838416761061</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A223" s="15" t="s">
         <v>124</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>0.61800462971571934</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A224" s="15" t="s">
         <v>165</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>0.71395392775114042</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A225" s="15" t="s">
         <v>165</v>
       </c>
@@ -11376,7 +11376,7 @@
         <v>0.59348126406387791</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A226" s="15" t="s">
         <v>165</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>0.6271931394856729</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A227" s="15" t="s">
         <v>165</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>0.43305032713145453</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A228" s="15" t="s">
         <v>165</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>0.36557767596937218</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A229" s="15" t="s">
         <v>163</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>0.30789034128000314</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A230" s="15" t="s">
         <v>163</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>0.29008614056684889</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A231" s="15" t="s">
         <v>167</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>0.68320876719030377</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A232" s="15" t="s">
         <v>167</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>0.68584329321066884</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A233" s="15" t="s">
         <v>167</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>0.79950311034976251</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A234" s="15" t="s">
         <v>167</v>
       </c>
@@ -11854,7 +11854,7 @@
         <v>0.73841852833156074</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A235" s="15" t="s">
         <v>167</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>0.72100145451052267</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A236" s="15" t="s">
         <v>167</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>0.75913752670696255</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A237" s="15" t="s">
         <v>167</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>0.64689611158735905</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A238" s="15" t="s">
         <v>167</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>0.70652517507706258</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A239" s="40" t="s">
         <v>168</v>
       </c>
@@ -12116,7 +12116,7 @@
         <v>0.45903668846167961</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A240" s="40" t="s">
         <v>164</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>0.53282534338505916</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A241" s="40" t="s">
         <v>168</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>0.61017812199345012</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A242" s="40" t="s">
         <v>168</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>0.72452009463053801</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A243" s="40" t="s">
         <v>168</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>0.77803273940818507</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A244" s="15" t="s">
         <v>168</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>0.40780085651399212</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A245" s="40" t="s">
         <v>168</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>0.6691492554019518</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A246" s="40" t="s">
         <v>168</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>0.76461505013244147</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A247" s="40" t="s">
         <v>168</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>0.81503122254639704</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A248" s="40" t="s">
         <v>168</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>0.79107557233746428</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A249" s="40" t="s">
         <v>168</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>0.39126185027058136</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A250" s="15" t="s">
         <v>168</v>
       </c>
@@ -12706,7 +12706,7 @@
         <v>0.37739270160197469</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A251" s="2" t="s">
         <v>175</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>0.63673239919278812</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A252" s="15" t="s">
         <v>175</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>0.6769198393630641</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A253" s="2" t="s">
         <v>177</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>0.67606995133116421</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A254" s="2" t="s">
         <v>178</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>0.68956192016904538</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A255" s="2" t="s">
         <v>178</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>0.6946193135553701</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A256" s="2" t="s">
         <v>178</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>0.69846773955581298</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A257" s="2" t="s">
         <v>178</v>
       </c>
@@ -13025,18 +13025,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.90625" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="11"/>
-    <col min="3" max="3" width="24.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -13047,27 +13047,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>152</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>40</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>39</v>
       </c>
@@ -13148,7 +13148,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>66</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
         <v>36</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
         <v>37</v>
       </c>
@@ -13178,17 +13178,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>153</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>131</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>155</v>
       </c>
@@ -13221,7 +13221,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>138</v>
       </c>
@@ -13239,7 +13239,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
